--- a/Lab/Covid_dashbord/Covid19_vecka.xlsx
+++ b/Lab/Covid_dashbord/Covid19_vecka.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2020v6v6</t>
+          <t>2020v6</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -552,7 +552,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020v7v7</t>
+          <t>2020v7</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -598,7 +598,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020v8v8</t>
+          <t>2020v8</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -644,7 +644,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020v9v9</t>
+          <t>2020v9</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -690,7 +690,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020v10v10</t>
+          <t>2020v10</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020v11v11</t>
+          <t>2020v11</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -782,7 +782,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020v12v12</t>
+          <t>2020v12</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -828,7 +828,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020v13v13</t>
+          <t>2020v13</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -874,7 +874,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2020v14v14</t>
+          <t>2020v14</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -920,7 +920,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2020v15v15</t>
+          <t>2020v15</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -966,7 +966,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2020v16v16</t>
+          <t>2020v16</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2020v17v17</t>
+          <t>2020v17</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2020v18v18</t>
+          <t>2020v18</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2020v19v19</t>
+          <t>2020v19</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2020v20v20</t>
+          <t>2020v20</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2020v21v21</t>
+          <t>2020v21</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2020v22v22</t>
+          <t>2020v22</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2020v23v23</t>
+          <t>2020v23</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2020v24v24</t>
+          <t>2020v24</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2020v25v25</t>
+          <t>2020v25</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2020v26v26</t>
+          <t>2020v26</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2020v27v27</t>
+          <t>2020v27</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2020v28v28</t>
+          <t>2020v28</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2020v29v29</t>
+          <t>2020v29</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2020v30v30</t>
+          <t>2020v30</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2020v31v31</t>
+          <t>2020v31</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2020v32v32</t>
+          <t>2020v32</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2020v33v33</t>
+          <t>2020v33</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2020v34v34</t>
+          <t>2020v34</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2020v35v35</t>
+          <t>2020v35</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2020v36v36</t>
+          <t>2020v36</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2020v37v37</t>
+          <t>2020v37</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2020v38v38</t>
+          <t>2020v38</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2020v39v39</t>
+          <t>2020v39</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2020v40v40</t>
+          <t>2020v40</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2020v41v41</t>
+          <t>2020v41</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2020v42v42</t>
+          <t>2020v42</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2020v43v43</t>
+          <t>2020v43</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2020v44v44</t>
+          <t>2020v44</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2020v45v45</t>
+          <t>2020v45</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2020v46v46</t>
+          <t>2020v46</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2020v47v47</t>
+          <t>2020v47</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2020v48v48</t>
+          <t>2020v48</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2020v49v49</t>
+          <t>2020v49</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2020v50v50</t>
+          <t>2020v50</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2020v51v51</t>
+          <t>2020v51</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2020v52v52</t>
+          <t>2020v52</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2020v53v53</t>
+          <t>2020v53</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021v1v1</t>
+          <t>2021v1</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021v2v2</t>
+          <t>2021v2</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021v3v3</t>
+          <t>2021v3</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021v4v4</t>
+          <t>2021v4</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021v5v5</t>
+          <t>2021v5</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021v6v6</t>
+          <t>2021v6</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021v7v7</t>
+          <t>2021v7</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021v8v8</t>
+          <t>2021v8</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021v9v9</t>
+          <t>2021v9</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021v10v10</t>
+          <t>2021v10</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021v11v11</t>
+          <t>2021v11</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021v12v12</t>
+          <t>2021v12</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021v13v13</t>
+          <t>2021v13</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021v14v14</t>
+          <t>2021v14</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021v15v15</t>
+          <t>2021v15</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021v16v16</t>
+          <t>2021v16</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021v17v17</t>
+          <t>2021v17</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021v18v18</t>
+          <t>2021v18</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021v19v19</t>
+          <t>2021v19</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021v20v20</t>
+          <t>2021v20</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021v21v21</t>
+          <t>2021v21</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021v22v22</t>
+          <t>2021v22</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021v23v23</t>
+          <t>2021v23</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021v24v24</t>
+          <t>2021v24</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021v25v25</t>
+          <t>2021v25</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021v26v26</t>
+          <t>2021v26</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021v27v27</t>
+          <t>2021v27</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021v28v28</t>
+          <t>2021v28</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021v29v29</t>
+          <t>2021v29</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021v30v30</t>
+          <t>2021v30</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021v31v31</t>
+          <t>2021v31</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021v32v32</t>
+          <t>2021v32</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021v33v33</t>
+          <t>2021v33</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021v34v34</t>
+          <t>2021v34</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021v35v35</t>
+          <t>2021v35</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021v36v36</t>
+          <t>2021v36</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021v37v37</t>
+          <t>2021v37</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021v38v38</t>
+          <t>2021v38</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021v39v39</t>
+          <t>2021v39</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021v40v40</t>
+          <t>2021v40</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021v41v41</t>
+          <t>2021v41</t>
         </is>
       </c>
       <c r="C90" t="n">
